--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987686.605939595</v>
+        <v>1985434.526228388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9954745.750256771</v>
+        <v>9954745.750256769</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>78.961229153611</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>252.7493895559485</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.2312541267336</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177694</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>224.3548762208287</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650395</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.2261899043218</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.3208822291518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505554</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.0291980517594</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,19 +4325,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,10 +4346,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672848</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672848</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820606</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880194</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.585586273444</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>774.7973336751995</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>363.811428885592</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279063</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740684</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>335.1301022844609</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259408</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>829.2142698811542</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>601.2247189831369</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5021,34 +5021,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,13 +5060,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>776.466420735098</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3497813227623</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>626.3497813227623</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>479.4598338248519</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5416,19 +5416,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142558</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823282</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>5.297948387947002</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9259388694759991</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172133</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948098</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823551</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857263.0331147034</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
@@ -26329,31 +26329,31 @@
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26442,7 +26442,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.5704421201</v>
+        <v>-951693.5704421198</v>
       </c>
       <c r="C6" t="n">
-        <v>377051.1752854732</v>
+        <v>377051.1752854727</v>
       </c>
       <c r="D6" t="n">
-        <v>377051.1752854728</v>
+        <v>377051.1752854729</v>
       </c>
       <c r="E6" t="n">
-        <v>127910.5398649609</v>
+        <v>127875.8019395257</v>
       </c>
       <c r="F6" t="n">
-        <v>453323.0016723165</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="G6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468802</v>
       </c>
       <c r="H6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468808</v>
       </c>
       <c r="I6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="J6" t="n">
-        <v>235791.7992750386</v>
+        <v>235757.0613496031</v>
       </c>
       <c r="K6" t="n">
-        <v>453323.0016723161</v>
+        <v>453288.2637468806</v>
       </c>
       <c r="L6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468807</v>
       </c>
       <c r="M6" t="n">
-        <v>368267.9737368044</v>
+        <v>368233.2358113686</v>
       </c>
       <c r="N6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468802</v>
       </c>
       <c r="O6" t="n">
-        <v>453323.0016723162</v>
+        <v>453288.2637468806</v>
       </c>
       <c r="P6" t="n">
-        <v>453323.0016723163</v>
+        <v>453288.2637468805</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>286.3116626173966</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433939</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>158.172336097505</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659868</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718942</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029135</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>186.5668494326248</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948324</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>549.9198891312103</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281407</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
